--- a/IO_sample.xlsx
+++ b/IO_sample.xlsx
@@ -114,8 +114,8 @@
   </sheetPr>
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1:E100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E79" activeCellId="0" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -128,13 +128,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -142,13 +142,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -156,13 +156,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -170,7 +170,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0.2</v>
@@ -184,7 +184,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0.2</v>
@@ -198,7 +198,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0.2</v>
@@ -212,7 +212,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0.2</v>
@@ -226,13 +226,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -240,7 +240,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0.2</v>
@@ -254,7 +254,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0.2</v>
@@ -268,7 +268,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0.2</v>
@@ -282,7 +282,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0.2</v>
@@ -296,7 +296,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0.2</v>
@@ -310,7 +310,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0.2</v>
@@ -324,7 +324,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0.2</v>
@@ -338,7 +338,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.2</v>
@@ -352,7 +352,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.2</v>
@@ -366,13 +366,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -380,7 +380,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.2</v>
@@ -394,7 +394,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0.2</v>
@@ -408,7 +408,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0.2</v>
@@ -422,7 +422,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0.2</v>
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0.2</v>
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -464,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0.2</v>
@@ -478,7 +478,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0.2</v>
@@ -492,7 +492,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0.2</v>
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0.2</v>
@@ -520,13 +520,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0.2</v>
@@ -548,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0.2</v>
@@ -562,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0.2</v>
@@ -576,13 +576,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -590,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0.2</v>
@@ -604,13 +604,13 @@
         <v>1</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -618,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0.2</v>
@@ -632,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0.2</v>
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0.2</v>
@@ -660,13 +660,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,7 +674,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0.2</v>
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0.2</v>
@@ -702,13 +702,13 @@
         <v>1</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0.2</v>
@@ -730,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0.2</v>
@@ -744,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0.2</v>
@@ -758,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0.2</v>
@@ -772,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0.2</v>
@@ -786,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0.2</v>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0.2</v>
@@ -814,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0.2</v>
@@ -828,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>0.2</v>
@@ -842,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>0.2</v>
@@ -856,7 +856,7 @@
         <v>1</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>0.2</v>
@@ -870,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>0.2</v>
@@ -884,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>0.2</v>
@@ -898,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>0.2</v>
@@ -912,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>0.2</v>
@@ -926,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>0.2</v>
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>0.2</v>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>0.2</v>
@@ -968,13 +968,13 @@
         <v>1</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -982,13 +982,13 @@
         <v>1</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -996,13 +996,13 @@
         <v>1</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1010,13 +1010,13 @@
         <v>1</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1024,13 +1024,13 @@
         <v>1</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1038,13 +1038,13 @@
         <v>1</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1052,13 +1052,13 @@
         <v>1</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,13 +1066,13 @@
         <v>1</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1080,13 +1080,13 @@
         <v>1</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1094,13 +1094,13 @@
         <v>1</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1108,13 +1108,13 @@
         <v>1</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1122,13 +1122,13 @@
         <v>1</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1136,13 +1136,13 @@
         <v>1</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1150,13 +1150,13 @@
         <v>1</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1164,13 +1164,13 @@
         <v>1</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>0.2</v>
@@ -1192,13 +1192,13 @@
         <v>1</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1206,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>0.2</v>
@@ -1220,13 +1220,13 @@
         <v>1</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1234,13 +1234,13 @@
         <v>1</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1248,13 +1248,13 @@
         <v>1</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1262,13 +1262,13 @@
         <v>1</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1276,13 +1276,13 @@
         <v>1</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1290,13 +1290,13 @@
         <v>1</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1304,13 +1304,13 @@
         <v>1</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1318,13 +1318,13 @@
         <v>1</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1332,13 +1332,13 @@
         <v>1</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1346,13 +1346,13 @@
         <v>1</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1360,13 +1360,13 @@
         <v>1</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1374,13 +1374,13 @@
         <v>1</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1388,13 +1388,13 @@
         <v>1</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1402,13 +1402,13 @@
         <v>1</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1416,13 +1416,13 @@
         <v>1</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1430,13 +1430,13 @@
         <v>1</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1444,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>0.2</v>
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>0.2</v>
@@ -1472,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>0.2</v>
@@ -1486,13 +1486,13 @@
         <v>1</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1500,13 +1500,13 @@
         <v>1</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1514,13 +1514,13 @@
         <v>1</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
